--- a/Salary vs. OBP then and now.xlsx
+++ b/Salary vs. OBP then and now.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christiantruchsess/Documents/Professional/Programming/Lighthouse_Labs/data_bootcamp/Final_Project/baseball_unsupervised/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A558925-B2CD-9F4C-A378-2A7A9844C92F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F1D7B5-D87B-954B-BA80-A5863507F16F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="0" windowWidth="29520" windowHeight="21600" xr2:uid="{F5CC696B-54B4-234A-9583-F5A8E59170A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{F5CC696B-54B4-234A-9583-F5A8E59170A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>OBP</t>
   </si>
@@ -245,6 +244,9 @@
   </si>
   <si>
     <t xml:space="preserve">Joc Pederson </t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
   </si>
 </sst>
 </file>
@@ -325,9 +327,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -342,6 +341,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFB9A84-EC86-EF4F-869C-1A21E2EA5DF9}">
-  <dimension ref="B2:L47"/>
+  <dimension ref="B2:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="E11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -677,16 +679,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="C2" s="3">
+      <c r="C2" s="13">
         <v>2002</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="I2" s="3">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="I2" s="13">
         <v>2020</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="2:12">
       <c r="C3" t="s">
@@ -713,7 +715,7 @@
       <c r="K3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -724,7 +726,7 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.39172414</v>
       </c>
       <c r="E4" s="1">
@@ -742,7 +744,7 @@
       <c r="I4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>0.39</v>
       </c>
       <c r="K4" s="2">
@@ -761,7 +763,7 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.40605096000000002</v>
       </c>
       <c r="E5" s="1">
@@ -779,7 +781,7 @@
       <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>0.32900000000000001</v>
       </c>
       <c r="K5" s="2">
@@ -797,7 +799,7 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.44980694999999998</v>
       </c>
       <c r="E6" s="1">
@@ -815,7 +817,7 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>0.23499999999999999</v>
       </c>
       <c r="K6" s="2">
@@ -833,7 +835,7 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.58169934999999995</v>
       </c>
       <c r="E7" s="1">
@@ -851,7 +853,7 @@
       <c r="I7" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>0.27</v>
       </c>
       <c r="K7" s="2">
@@ -869,7 +871,7 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0.39939940000000002</v>
       </c>
       <c r="E8" s="1">
@@ -887,7 +889,7 @@
       <c r="I8" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>0.30299999999999999</v>
       </c>
       <c r="K8" s="2">
@@ -905,7 +907,7 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.37276479000000001</v>
       </c>
       <c r="E9" s="1">
@@ -923,7 +925,7 @@
       <c r="I9" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>0.38700000000000001</v>
       </c>
       <c r="K9" s="2">
@@ -941,7 +943,7 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.38540145999999997</v>
       </c>
       <c r="E10" s="1">
@@ -959,7 +961,7 @@
       <c r="I10" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>0.35399999999999998</v>
       </c>
       <c r="K10" s="2">
@@ -977,7 +979,7 @@
       <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0.42133816000000002</v>
       </c>
       <c r="E11" s="1">
@@ -995,7 +997,7 @@
       <c r="I11" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>0.35199999999999998</v>
       </c>
       <c r="K11" s="2">
@@ -1013,7 +1015,7 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>0.41487839999999998</v>
       </c>
       <c r="E12" s="1">
@@ -1031,7 +1033,7 @@
       <c r="I12" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>0.29099999999999998</v>
       </c>
       <c r="K12" s="2">
@@ -1049,7 +1051,7 @@
       <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>0.34946237000000002</v>
       </c>
       <c r="E13" s="1">
@@ -1067,7 +1069,7 @@
       <c r="I13" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>0.373</v>
       </c>
       <c r="K13" s="2">
@@ -1085,7 +1087,7 @@
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>0.43504532000000001</v>
       </c>
       <c r="E14" s="1">
@@ -1103,7 +1105,7 @@
       <c r="I14" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>0.39200000000000002</v>
       </c>
       <c r="K14" s="2">
@@ -1121,7 +1123,7 @@
       <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>0.32432432</v>
       </c>
       <c r="E15" s="1">
@@ -1139,7 +1141,7 @@
       <c r="I15" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>0.32</v>
       </c>
       <c r="K15" s="2">
@@ -1157,7 +1159,7 @@
       <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>0.40086831000000001</v>
       </c>
       <c r="E16" s="1">
@@ -1175,7 +1177,7 @@
       <c r="I16" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>0.25</v>
       </c>
       <c r="K16" s="2">
@@ -1193,7 +1195,7 @@
       <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>0.30149253999999998</v>
       </c>
       <c r="E17" s="1">
@@ -1211,7 +1213,7 @@
       <c r="I17" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>0.32600000000000001</v>
       </c>
       <c r="K17" s="2">
@@ -1229,7 +1231,7 @@
       <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>0.35859519000000001</v>
       </c>
       <c r="E18" s="1">
@@ -1247,7 +1249,7 @@
       <c r="I18" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>0.46200000000000002</v>
       </c>
       <c r="K18" s="2">
@@ -1259,23 +1261,23 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <f>AVERAGE(D4:D18)</f>
         <v>0.39952344399999995</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="11"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="2"/>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
         <f>AVERAGE(J4:J18)</f>
         <v>0.33559999999999995</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="11"/>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="2:12">
       <c r="H20" s="2"/>
@@ -1284,7 +1286,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C22" t="s">
@@ -1296,11 +1298,11 @@
       <c r="E22" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="11" t="s">
         <v>51</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>60</v>
       </c>
       <c r="I22" t="s">
@@ -1309,7 +1311,7 @@
       <c r="J22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1317,10 +1319,10 @@
       <c r="B23" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>0.313</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>497500</v>
       </c>
       <c r="E23" s="2">
@@ -1334,10 +1336,10 @@
       <c r="H23" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>0.40100000000000002</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <v>573500</v>
       </c>
       <c r="K23" s="2">
@@ -1349,10 +1351,10 @@
       <c r="B24" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>0.374</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>900000</v>
       </c>
       <c r="E24" s="2">
@@ -1366,14 +1368,14 @@
       <c r="H24" t="s">
         <v>62</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>0.33100000000000002</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <v>5500000</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" ref="K24:K32" si="5">J24/(I24*100)</f>
+        <f t="shared" ref="K24:K31" si="5">J24/(I24*100)</f>
         <v>166163.14199395769</v>
       </c>
     </row>
@@ -1413,7 +1415,7 @@
       <c r="B26" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>0.35399999999999998</v>
       </c>
       <c r="D26" s="2">
@@ -1430,7 +1432,7 @@
       <c r="H26" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <v>0.35799999999999998</v>
       </c>
       <c r="J26" s="2">
@@ -1445,7 +1447,7 @@
       <c r="B27" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>0.34799999999999998</v>
       </c>
       <c r="D27" s="2">
@@ -1462,7 +1464,7 @@
       <c r="H27" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="5">
         <v>0.4</v>
       </c>
       <c r="J27" s="2">
@@ -1477,7 +1479,7 @@
       <c r="B28" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>0.376</v>
       </c>
       <c r="D28" s="2">
@@ -1494,7 +1496,7 @@
       <c r="H28" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="5">
         <v>0.314</v>
       </c>
       <c r="J28" s="2">
@@ -1509,7 +1511,7 @@
       <c r="B29" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>0.29799999999999999</v>
       </c>
       <c r="D29" s="2">
@@ -1526,7 +1528,7 @@
       <c r="H29" t="s">
         <v>67</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="5">
         <v>0.33300000000000002</v>
       </c>
       <c r="J29" s="2">
@@ -1541,7 +1543,7 @@
       <c r="B30" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>0.33300000000000002</v>
       </c>
       <c r="D30" s="2">
@@ -1558,7 +1560,7 @@
       <c r="H30" t="s">
         <v>68</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <v>0.36599999999999999</v>
       </c>
       <c r="J30" s="2">
@@ -1573,7 +1575,7 @@
       <c r="B31" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>0.35</v>
       </c>
       <c r="D31" s="2">
@@ -1590,7 +1592,7 @@
       <c r="H31" t="s">
         <v>69</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="5">
         <v>0.28499999999999998</v>
       </c>
       <c r="J31" s="2">
@@ -1602,42 +1604,52 @@
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C32">
         <f>AVERAGE(C23:C31)</f>
         <v>0.34499999999999997</v>
       </c>
-      <c r="D32" s="11">
-        <f>SUM(D23:D31)</f>
-        <v>28596667</v>
-      </c>
-      <c r="E32" s="13">
+      <c r="D32" s="10">
+        <f>AVERAGE(D23:D31)</f>
+        <v>3177407.4444444445</v>
+      </c>
+      <c r="E32" s="12">
         <f t="shared" si="3"/>
-        <v>40635863.807000004</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="H32" s="9" t="s">
+        <v>4515095.9785555555</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="4"/>
+        <v>130872.34720450886</v>
+      </c>
+      <c r="H32" s="8" t="s">
         <v>50</v>
       </c>
       <c r="I32">
         <f>AVERAGE(I23:I31)</f>
         <v>0.33977777777777779</v>
       </c>
-      <c r="J32" s="11">
-        <f>SUM(J23:J31)</f>
-        <v>96823500</v>
-      </c>
-      <c r="K32" s="11"/>
+      <c r="J32" s="10">
+        <f>AVERAGE(J23:J31)</f>
+        <v>10758166.666666666</v>
+      </c>
+      <c r="K32" s="10">
+        <f>J32/(I32*100)</f>
+        <v>316623.61020274682</v>
+      </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="E33" s="2">
+        <f>SUM(E23:E31)</f>
+        <v>40635863.806999996</v>
+      </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C36" t="s">
@@ -1649,7 +1661,7 @@
       <c r="E36" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1657,10 +1669,10 @@
       <c r="B37" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>0.37</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="9">
         <v>7000000</v>
       </c>
       <c r="E37" s="2">
@@ -1676,10 +1688,10 @@
       <c r="B38" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>0.435</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="9">
         <v>10428571</v>
       </c>
       <c r="E38" s="2">
@@ -1714,7 +1726,7 @@
       <c r="B40" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>0.373</v>
       </c>
       <c r="D40" s="2">
@@ -1733,7 +1745,7 @@
       <c r="B41" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>0.36799999999999999</v>
       </c>
       <c r="D41" s="2">
@@ -1752,7 +1764,7 @@
       <c r="B42" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>0.28799999999999998</v>
       </c>
       <c r="D42" s="2">
@@ -1771,7 +1783,7 @@
       <c r="B43" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>0.41499999999999998</v>
       </c>
       <c r="D43" s="2">
@@ -1790,7 +1802,7 @@
       <c r="B44" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>0.315</v>
       </c>
       <c r="D44" s="2">
@@ -1809,7 +1821,7 @@
       <c r="B45" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>0.34699999999999998</v>
       </c>
       <c r="D45" s="2">
@@ -1825,26 +1837,33 @@
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="9" t="s">
-        <v>50</v>
+      <c r="B46" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="C46">
         <f>AVERAGE(C37:C45)</f>
         <v>0.36033333333333334</v>
       </c>
-      <c r="D46" s="11">
-        <f>SUM(D37:D45)</f>
-        <v>69236364</v>
-      </c>
-      <c r="E46" s="13">
-        <f t="shared" si="6"/>
-        <v>98384873.244000003</v>
-      </c>
-      <c r="F46" s="11"/>
+      <c r="D46" s="10">
+        <f>AVERAGE(D37:D45)</f>
+        <v>7692929.333333333</v>
+      </c>
+      <c r="E46" s="12">
+        <f>D46*1.421</f>
+        <v>10931652.582666667</v>
+      </c>
+      <c r="F46" s="10">
+        <f>E46/(C46*100)</f>
+        <v>303376.11237742833</v>
+      </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="D47" s="9" t="s">
-        <v>49</v>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="D48" s="2">
+        <f>SUM(E37:E45)</f>
+        <v>98384873.244000018</v>
       </c>
     </row>
   </sheetData>
@@ -1853,5 +1872,6 @@
     <mergeCell ref="I2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>